--- a/data/Today_MaintenanceIssues.xlsx
+++ b/data/Today_MaintenanceIssues.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1356,9 +1356,6 @@
     <t>NextChangeoutUsage</t>
   </si>
   <si>
-    <t>Current%</t>
-  </si>
-  <si>
     <t>CurrentUOM</t>
   </si>
   <si>
@@ -1390,13 +1387,16 @@
   </si>
   <si>
     <t>UnitID</t>
+  </si>
+  <si>
+    <t>Current</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1777,51 +1777,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="13" max="13" width="22.875" customWidth="1"/>
+    <col min="14" max="14" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H1" t="s">
+        <v>448</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="F1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G1" t="s">
-        <v>450</v>
-      </c>
-      <c r="H1" t="s">
-        <v>449</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>444</v>
